--- a/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.34.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.34.xlsx
@@ -106,12 +106,12 @@
     <t>checks</t>
   </si>
   <si>
+    <t xml:space="preserve">אנחנו רוצים אההה </t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t xml:space="preserve">אנחנו רוצים אההה </t>
-  </si>
-  <si>
     <t xml:space="preserve">אנחנו כבר הרבה שעות פה </t>
   </si>
   <si>
@@ -196,130 +196,130 @@
     <t>מה, מה.</t>
   </si>
   <si>
+    <t>הבאת את הילד הוא הגיע הוא הרגיש ברע היה לו כאבי בטן הוא הקיא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה בגלל מחלה מאוד מסוימת שנקראת סוכרת נעורים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">המחלה הזאתי היא בסדר היא די שכיחה מטפלים בה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה קורה במיוחד בגילאים האלה </t>
+  </si>
+  <si>
+    <t>חשוב לי שתדעי שזה לא בגלל שום דבר שאת עשית או שום דבר ש ... פשוט קורה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אה בהמשך היום אתם (לא נשמע) לרופא אה שמומחה למחלה הזאתי שיסביר לך על המחלה ואיך להתנהל עליה אה.</t>
+  </si>
+  <si>
+    <t>ממש אה אה קורה במיוחד בגילאים כאלה כלומר זה משהו שעובר?</t>
+  </si>
+  <si>
+    <t>לא, לא מחלה שהוא יצטרך להתמודד אתה כל החיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יש המון מחקרים שמנסים לפתור את הבעיה הזאתי, כרגע זה לכל החיים</t>
+  </si>
+  <si>
+    <t>אבל אה חיים אתה ואוכלים איתה ואנשים מתחתנים ומגיעים לגיל מאוחר</t>
+  </si>
+  <si>
+    <t>אתה אומר שלילד שלי יש סוכרת?</t>
+  </si>
+  <si>
+    <t>נכון, נכון.</t>
+  </si>
+  <si>
+    <t>(לא ברור) ילד בן חמש.</t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
+  </si>
+  <si>
+    <t>יש סכרת שמפתחים כשגדלים ויש סכרת שמפתחים כשקטנים,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> סכרת שמפתחים כשקטנים יש לה התרחשויות קצת שונות מסכרת של גדולים ויש סיבות שונות</t>
+  </si>
+  <si>
+    <t>אין לך מה לדאוג זה מחלה שמתמודדים איתה וממשיכים איתה</t>
+  </si>
+  <si>
+    <t>מתמודדים איתה, קשה להתמודד אתה.</t>
+  </si>
+  <si>
+    <t>זה קשה זה נכון.</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>בן חמש.</t>
+  </si>
+  <si>
+    <t>קשה זה נכון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא תמיד אתה יכול להגיד לו תשמע תאכל את זה, תאכל, </t>
+  </si>
+  <si>
+    <t>ילד שמשתולל שקופץ שעושה המון ספורטל הוא בכדורגל</t>
+  </si>
+  <si>
+    <t>מה יהיה?</t>
+  </si>
+  <si>
+    <t>הוא יוכל להמשיך,  הוא יוכל להמשיך עם הכול.</t>
+  </si>
+  <si>
+    <t>עדיף שהוא יעשה ספורט, זה טוב</t>
+  </si>
+  <si>
+    <t>(לא ברור) משנה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נכון </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגלל זה גם עדיף ללמוד את הנושא כמו שצריך </t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וגם הילד שלך יצטרך לגדול לתוך זה </t>
+  </si>
+  <si>
+    <t>אני יכול להגיד לך שלי יש חבר עם סכרת נעורים</t>
+  </si>
+  <si>
+    <t>self-dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> שהוא מתמודד עם זה יופי. </t>
+  </si>
+  <si>
+    <t>בן כמה הוא?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>חבר שלי בן שלושים ושתיים נשוי עם ילג</t>
+  </si>
+  <si>
+    <t>זה אחרת</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>הבאת את הילד הוא הגיע הוא הרגיש ברע היה לו כאבי בטן הוא הקיא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה בגלל מחלה מאוד מסוימת שנקראת סוכרת נעורים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">המחלה הזאתי היא בסדר היא די שכיחה מטפלים בה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה קורה במיוחד בגילאים האלה </t>
-  </si>
-  <si>
-    <t>חשוב לי שתדעי שזה לא בגלל שום דבר שאת עשית או שום דבר ש ... פשוט קורה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אה בהמשך היום אתם (לא נשמע) לרופא אה שמומחה למחלה הזאתי שיסביר לך על המחלה ואיך להתנהל עליה אה.</t>
-  </si>
-  <si>
-    <t>ממש אה אה קורה במיוחד בגילאים כאלה כלומר זה משהו שעובר?</t>
-  </si>
-  <si>
-    <t>לא, לא מחלה שהוא יצטרך להתמודד אתה כל החיים</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> יש המון מחקרים שמנסים לפתור את הבעיה הזאתי, כרגע זה לכל החיים</t>
-  </si>
-  <si>
-    <t>אבל אה חיים אתה ואוכלים איתה ואנשים מתחתנים ומגיעים לגיל מאוחר</t>
-  </si>
-  <si>
-    <t>אתה אומר שלילד שלי יש סוכרת?</t>
-  </si>
-  <si>
-    <t>נכון, נכון.</t>
-  </si>
-  <si>
-    <t>(לא ברור) ילד בן חמש.</t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
-  </si>
-  <si>
-    <t>יש סכרת שמפתחים כשגדלים ויש סכרת שמפתחים כשקטנים,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> סכרת שמפתחים כשקטנים יש לה התרחשויות קצת שונות מסכרת של גדולים ויש סיבות שונות</t>
-  </si>
-  <si>
-    <t>אין לך מה לדאוג זה מחלה שמתמודדים איתה וממשיכים איתה</t>
-  </si>
-  <si>
-    <t>מתמודדים איתה, קשה להתמודד אתה.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>זה קשה זה נכון.</t>
-  </si>
-  <si>
-    <t>legit</t>
-  </si>
-  <si>
-    <t>בן חמש.</t>
-  </si>
-  <si>
-    <t>קשה זה נכון.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא תמיד אתה יכול להגיד לו תשמע תאכל את זה, תאכל, </t>
-  </si>
-  <si>
-    <t>ילד שמשתולל שקופץ שעושה המון ספורטל הוא בכדורגל</t>
-  </si>
-  <si>
-    <t>מה יהיה?</t>
-  </si>
-  <si>
-    <t>הוא יוכל להמשיך,  הוא יוכל להמשיך עם הכול.</t>
-  </si>
-  <si>
-    <t>עדיף שהוא יעשה ספורט, זה טוב</t>
-  </si>
-  <si>
-    <t>(לא ברור) משנה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נכון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בגלל זה גם עדיף ללמוד את הנושא כמו שצריך </t>
-  </si>
-  <si>
-    <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">וגם הילד שלך יצטרך לגדול לתוך זה </t>
-  </si>
-  <si>
-    <t>אני יכול להגיד לך שלי יש חבר עם סכרת נעורים</t>
-  </si>
-  <si>
-    <t>self-dis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> שהוא מתמודד עם זה יופי. </t>
-  </si>
-  <si>
-    <t>בן כמה הוא?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>חבר שלי בן שלושים ושתיים נשוי עם ילג</t>
-  </si>
-  <si>
-    <t>זה אחרת</t>
   </si>
   <si>
     <t xml:space="preserve">אבל הוא קיבל את המחלה גם כן כשהיה מאוד צעיר, </t>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1348,7 +1348,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
         <v>73</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>74</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1673,7 +1673,7 @@
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -1726,7 +1726,7 @@
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
         <v>81</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
         <v>92</v>
-      </c>
-      <c r="B74" t="s">
-        <v>93</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
         <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
         <v>98</v>
       </c>
-      <c r="B78" t="s">
-        <v>99</v>
-      </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
         <v>101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1992,7 +1992,7 @@
         <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2009,7 +2009,7 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2062,7 +2062,7 @@
         <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2093,7 +2093,7 @@
         <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2146,7 +2146,7 @@
         <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
@@ -2244,7 +2244,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2258,7 +2258,7 @@
         <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -2286,7 +2286,7 @@
         <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2398,7 +2398,7 @@
         <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -2443,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -2485,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -2538,7 +2538,7 @@
         <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -2552,7 +2552,7 @@
         <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -2566,7 +2566,7 @@
         <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2636,7 +2636,7 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2678,7 +2678,7 @@
         <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2706,7 +2706,7 @@
         <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -2720,7 +2720,7 @@
         <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -2863,7 +2863,7 @@
         <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -2902,7 +2902,7 @@
         <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -2916,7 +2916,7 @@
         <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
